--- a/srv/backendv2/tests/birds/test_birds_data.xlsx
+++ b/srv/backendv2/tests/birds/test_birds_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PM34NO\PycharmProjects\bird-site\srv\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PM34NO\PycharmProjects\bird-site\srv\backendv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98049EA-FBB8-4B5F-B3F9-4960EAC85AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9009A138-A8A5-4357-BA89-581D65FEE4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="75">
   <si>
     <t>suborder</t>
   </si>
@@ -254,7 +254,7 @@
     <t>small</t>
   </si>
   <si>
-    <t>medium</t>
+    <t>TEMP</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,6 +1204,12 @@
       <c r="A6" t="s">
         <v>39</v>
       </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1247,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D783D88-BC5B-4F2D-A74B-0A62FDF1BAB4}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1314,7 +1320,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1334,7 +1340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B6A7F-2A5C-40EF-9F6C-7D7A350D77D2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1360,11 +1366,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6240EFE-CA97-4B5E-9E1A-7A3648DFCC35}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1923,7 +1932,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
